--- a/public/crawler_file/PRTIMES.xlsx
+++ b/public/crawler_file/PRTIMES.xlsx
@@ -5,20 +5,22 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TPP\Project\Nakai Project\web_crawler_prtimes\public\crawler_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prtimes\public\crawler_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7223DB04-CA84-4B3B-9F77-192F1B3D501A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA57CE1F-CBD3-46D8-83D2-8B6B44B9B53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BF9FB27-30DC-419E-9F27-D417E67F05C7}"/>
   </bookViews>
   <sheets>
     <sheet name="PRTIMES" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26,18 +28,18 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>KW</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>業種</t>
     <rPh sb="0" eb="2">
       <t>ギョウシュ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>企業名</t>
@@ -47,7 +49,7 @@
   </si>
   <si>
     <t>上場</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>資本金</t>
@@ -63,38 +65,40 @@
   </si>
   <si>
     <t>記事内に記載された商品・サービスのURL</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>ビジネスカテゴリ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>記事最下部に表示されているKW</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>PRTIMESのURL</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>RELEASE TIME</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="0"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -102,7 +106,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -213,37 +216,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -260,29 +260,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="PRTIMES (1)"/>
-      <sheetName val="検索条件リスト"/>
-      <sheetName val="PRTIMES(テンプレート)"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="②詳細セット"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,41 +558,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934CD5A7-0AD3-4249-8B84-7CCDCC9B9850}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="10"/>
-    <col min="2" max="2" width="11.88671875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="38.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5546875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="13.2">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
